--- a/01_resource/00_xlsx/char_hiragana.xlsx
+++ b/01_resource/00_xlsx/char_hiragana.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\school\Git\solo\Undertale\00_source\data\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\school\Git\solo\Undertale\01_resource\00_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2058E1-1698-4030-842D-67F62BC7303C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ACFAEE-A3D9-43A7-9FB1-381C5287B829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B67A4CAE-4911-4701-8561-B3CD66A52246}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>あ</t>
   </si>
@@ -355,15 +355,19 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>117 200 0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>CHAR_OFFSET</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>SAPCE_OFFSET</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>117 225 0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>47 47</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -957,15 +961,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1345,7 +1346,7 @@
   <dimension ref="B2:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1361,30 +1362,27 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>47</v>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1731,14 +1729,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
